--- a/daq_system/inputs/CMS_Data_Test_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Data_Test_Dev6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90206CE4-D79E-41AE-AB10-DD4FDA56F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFBDDA1-1A1A-457A-832C-0EACAD7CD166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="15360" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="4180" windowWidth="19200" windowHeight="8073" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -156,222 +156,6 @@
   </si>
   <si>
     <t>TC No.</t>
-  </si>
-  <si>
-    <t>PT-FU-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai0</t>
-  </si>
-  <si>
-    <t>PoundsPerSquareInch</t>
-  </si>
-  <si>
-    <t>Differential</t>
-  </si>
-  <si>
-    <t>LNG Tank PT</t>
-  </si>
-  <si>
-    <t>AI 17</t>
-  </si>
-  <si>
-    <t>PT-OX-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai1</t>
-  </si>
-  <si>
-    <t>LOx Tank PT</t>
-  </si>
-  <si>
-    <t>AI 18</t>
-  </si>
-  <si>
-    <t>PT-ENG-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai2</t>
-  </si>
-  <si>
-    <t>Engine Chamber PT</t>
-  </si>
-  <si>
-    <t>AI 19</t>
-  </si>
-  <si>
-    <t>PT-N2-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai19</t>
-  </si>
-  <si>
-    <t>Nitrogen Pack PT</t>
-  </si>
-  <si>
-    <t>AI 28</t>
-  </si>
-  <si>
-    <t>PT-OX-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai20</t>
-  </si>
-  <si>
-    <t>LOx Dewar PT</t>
-  </si>
-  <si>
-    <t>AI 29</t>
-  </si>
-  <si>
-    <t>PT-FU-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai21</t>
-  </si>
-  <si>
-    <t>LNG Dewar PT</t>
-  </si>
-  <si>
-    <t>AI 30</t>
-  </si>
-  <si>
-    <t>DegF</t>
-  </si>
-  <si>
-    <t>TC-OX-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai4</t>
-  </si>
-  <si>
-    <t>LOx Tank</t>
-  </si>
-  <si>
-    <t>AI 21</t>
-  </si>
-  <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>TC-FU-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai5</t>
-  </si>
-  <si>
-    <t>LNG Tank</t>
-  </si>
-  <si>
-    <t>AI 22</t>
-  </si>
-  <si>
-    <t>TC-08</t>
-  </si>
-  <si>
-    <t>TC-HE-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai6</t>
-  </si>
-  <si>
-    <t>Helium Tank</t>
-  </si>
-  <si>
-    <t>AI 23</t>
-  </si>
-  <si>
-    <t>TC-07</t>
-  </si>
-  <si>
-    <t>TC-OX-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai7</t>
-  </si>
-  <si>
-    <t>LOx Dewar</t>
-  </si>
-  <si>
-    <t>AI 24</t>
-  </si>
-  <si>
-    <t>TC-06</t>
-  </si>
-  <si>
-    <t>TC-FU-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai16</t>
-  </si>
-  <si>
-    <t>LNG Dewar</t>
-  </si>
-  <si>
-    <t>AI 25</t>
-  </si>
-  <si>
-    <t>TC-05</t>
-  </si>
-  <si>
-    <t>TC-FU-02</t>
-  </si>
-  <si>
-    <t>Dev6/ai17</t>
-  </si>
-  <si>
-    <t>LNG Fill Line</t>
-  </si>
-  <si>
-    <t>AI 26</t>
-  </si>
-  <si>
-    <t>TC-04</t>
-  </si>
-  <si>
-    <t>TC-FU-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai18</t>
-  </si>
-  <si>
-    <t>LNG Vent</t>
-  </si>
-  <si>
-    <t>AI 27</t>
-  </si>
-  <si>
-    <t>TC-03</t>
-  </si>
-  <si>
-    <t>TC-OX-02</t>
-  </si>
-  <si>
-    <t>Dev6/ai22</t>
-  </si>
-  <si>
-    <t>LOx Fill Line</t>
-  </si>
-  <si>
-    <t>AI 31</t>
-  </si>
-  <si>
-    <t>TC-02</t>
-  </si>
-  <si>
-    <t>TC-OX-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai23</t>
-  </si>
-  <si>
-    <t>LOx Vent</t>
-  </si>
-  <si>
-    <t>AI 32</t>
-  </si>
-  <si>
-    <t>TC-01</t>
   </si>
 </sst>
 </file>
@@ -986,9 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1053,601 +837,214 @@
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="13">
-        <v>99.9737233508</v>
-      </c>
-      <c r="G2" s="13">
-        <v>-8.0122766099000007</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="13">
-        <v>100.06924683290001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>-6.5283587299999999</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>10</v>
-      </c>
-      <c r="J3" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="13">
-        <v>100</v>
-      </c>
-      <c r="G4" s="13">
-        <v>-6.6220607021999998</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="13">
-        <v>299.67824018760001</v>
-      </c>
-      <c r="G5" s="13">
-        <v>-9.0021834780999992</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>10</v>
-      </c>
-      <c r="J5" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="13">
-        <v>200.03087816710001</v>
-      </c>
-      <c r="G6" s="13">
-        <v>5.4592762398000003</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>10</v>
-      </c>
-      <c r="J6" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="13">
-        <v>200.08621243659999</v>
-      </c>
-      <c r="G7" s="13">
-        <v>5.3297765692999999</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>10</v>
-      </c>
-      <c r="J7" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G8" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2</v>
-      </c>
-      <c r="I8" s="16">
-        <v>10</v>
-      </c>
-      <c r="J8" s="16">
-        <v>84</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G9" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H9" s="16">
-        <v>2</v>
-      </c>
-      <c r="I9" s="16">
-        <v>10</v>
-      </c>
-      <c r="J9" s="16">
-        <v>84</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G10" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2</v>
-      </c>
-      <c r="I10" s="16">
-        <v>10</v>
-      </c>
-      <c r="J10" s="16">
-        <v>84</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G11" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H11" s="16">
-        <v>2</v>
-      </c>
-      <c r="I11" s="16">
-        <v>10</v>
-      </c>
-      <c r="J11" s="16">
-        <v>84</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G12" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H12" s="16">
-        <v>2</v>
-      </c>
-      <c r="I12" s="16">
-        <v>10</v>
-      </c>
-      <c r="J12" s="16">
-        <v>84</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G13" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2</v>
-      </c>
-      <c r="I13" s="16">
-        <v>10</v>
-      </c>
-      <c r="J13" s="16">
-        <v>84</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G14" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H14" s="16">
-        <v>2</v>
-      </c>
-      <c r="I14" s="16">
-        <v>10</v>
-      </c>
-      <c r="J14" s="16">
-        <v>84</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G15" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H15" s="16">
-        <v>2</v>
-      </c>
-      <c r="I15" s="16">
-        <v>10</v>
-      </c>
-      <c r="J15" s="16">
-        <v>84</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A16" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G16" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H16" s="16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="16">
-        <v>10</v>
-      </c>
-      <c r="J16" s="16">
-        <v>84</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1669,7 +1066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H11"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2449,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>

--- a/daq_system/inputs/CMS_Data_Test_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Data_Test_Dev6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90206CE4-D79E-41AE-AB10-DD4FDA56F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50056E0D-DC2D-487D-B493-8D1AED789F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="15360" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -156,229 +156,13 @@
   </si>
   <si>
     <t>TC No.</t>
-  </si>
-  <si>
-    <t>PT-FU-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai0</t>
-  </si>
-  <si>
-    <t>PoundsPerSquareInch</t>
-  </si>
-  <si>
-    <t>Differential</t>
-  </si>
-  <si>
-    <t>LNG Tank PT</t>
-  </si>
-  <si>
-    <t>AI 17</t>
-  </si>
-  <si>
-    <t>PT-OX-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai1</t>
-  </si>
-  <si>
-    <t>LOx Tank PT</t>
-  </si>
-  <si>
-    <t>AI 18</t>
-  </si>
-  <si>
-    <t>PT-ENG-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai2</t>
-  </si>
-  <si>
-    <t>Engine Chamber PT</t>
-  </si>
-  <si>
-    <t>AI 19</t>
-  </si>
-  <si>
-    <t>PT-N2-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai19</t>
-  </si>
-  <si>
-    <t>Nitrogen Pack PT</t>
-  </si>
-  <si>
-    <t>AI 28</t>
-  </si>
-  <si>
-    <t>PT-OX-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai20</t>
-  </si>
-  <si>
-    <t>LOx Dewar PT</t>
-  </si>
-  <si>
-    <t>AI 29</t>
-  </si>
-  <si>
-    <t>PT-FU-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai21</t>
-  </si>
-  <si>
-    <t>LNG Dewar PT</t>
-  </si>
-  <si>
-    <t>AI 30</t>
-  </si>
-  <si>
-    <t>DegF</t>
-  </si>
-  <si>
-    <t>TC-OX-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai4</t>
-  </si>
-  <si>
-    <t>LOx Tank</t>
-  </si>
-  <si>
-    <t>AI 21</t>
-  </si>
-  <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>TC-FU-03</t>
-  </si>
-  <si>
-    <t>Dev6/ai5</t>
-  </si>
-  <si>
-    <t>LNG Tank</t>
-  </si>
-  <si>
-    <t>AI 22</t>
-  </si>
-  <si>
-    <t>TC-08</t>
-  </si>
-  <si>
-    <t>TC-HE-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai6</t>
-  </si>
-  <si>
-    <t>Helium Tank</t>
-  </si>
-  <si>
-    <t>AI 23</t>
-  </si>
-  <si>
-    <t>TC-07</t>
-  </si>
-  <si>
-    <t>TC-OX-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai7</t>
-  </si>
-  <si>
-    <t>LOx Dewar</t>
-  </si>
-  <si>
-    <t>AI 24</t>
-  </si>
-  <si>
-    <t>TC-06</t>
-  </si>
-  <si>
-    <t>TC-FU-04</t>
-  </si>
-  <si>
-    <t>Dev6/ai16</t>
-  </si>
-  <si>
-    <t>LNG Dewar</t>
-  </si>
-  <si>
-    <t>AI 25</t>
-  </si>
-  <si>
-    <t>TC-05</t>
-  </si>
-  <si>
-    <t>TC-FU-02</t>
-  </si>
-  <si>
-    <t>Dev6/ai17</t>
-  </si>
-  <si>
-    <t>LNG Fill Line</t>
-  </si>
-  <si>
-    <t>AI 26</t>
-  </si>
-  <si>
-    <t>TC-04</t>
-  </si>
-  <si>
-    <t>TC-FU-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai18</t>
-  </si>
-  <si>
-    <t>LNG Vent</t>
-  </si>
-  <si>
-    <t>AI 27</t>
-  </si>
-  <si>
-    <t>TC-03</t>
-  </si>
-  <si>
-    <t>TC-OX-02</t>
-  </si>
-  <si>
-    <t>Dev6/ai22</t>
-  </si>
-  <si>
-    <t>LOx Fill Line</t>
-  </si>
-  <si>
-    <t>AI 31</t>
-  </si>
-  <si>
-    <t>TC-02</t>
-  </si>
-  <si>
-    <t>TC-OX-01</t>
-  </si>
-  <si>
-    <t>Dev6/ai23</t>
-  </si>
-  <si>
-    <t>LOx Vent</t>
-  </si>
-  <si>
-    <t>AI 32</t>
-  </si>
-  <si>
-    <t>TC-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,17 +177,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -432,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -458,21 +231,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -515,18 +279,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,35 +591,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -984,11 +736,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1052,609 +804,12 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="13">
-        <v>99.9737233508</v>
-      </c>
-      <c r="G2" s="13">
-        <v>-8.0122766099000007</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="13">
-        <v>100.06924683290001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>-6.5283587299999999</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>10</v>
-      </c>
-      <c r="J3" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="13">
-        <v>100</v>
-      </c>
-      <c r="G4" s="13">
-        <v>-6.6220607021999998</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="13">
-        <v>299.67824018760001</v>
-      </c>
-      <c r="G5" s="13">
-        <v>-9.0021834780999992</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>10</v>
-      </c>
-      <c r="J5" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="13">
-        <v>200.03087816710001</v>
-      </c>
-      <c r="G6" s="13">
-        <v>5.4592762398000003</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>10</v>
-      </c>
-      <c r="J6" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="13">
-        <v>200.08621243659999</v>
-      </c>
-      <c r="G7" s="13">
-        <v>5.3297765692999999</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>10</v>
-      </c>
-      <c r="J7" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G8" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2</v>
-      </c>
-      <c r="I8" s="16">
-        <v>10</v>
-      </c>
-      <c r="J8" s="16">
-        <v>84</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G9" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H9" s="16">
-        <v>2</v>
-      </c>
-      <c r="I9" s="16">
-        <v>10</v>
-      </c>
-      <c r="J9" s="16">
-        <v>84</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G10" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2</v>
-      </c>
-      <c r="I10" s="16">
-        <v>10</v>
-      </c>
-      <c r="J10" s="16">
-        <v>84</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G11" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H11" s="16">
-        <v>2</v>
-      </c>
-      <c r="I11" s="16">
-        <v>10</v>
-      </c>
-      <c r="J11" s="16">
-        <v>84</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G12" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H12" s="16">
-        <v>2</v>
-      </c>
-      <c r="I12" s="16">
-        <v>10</v>
-      </c>
-      <c r="J12" s="16">
-        <v>84</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G13" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2</v>
-      </c>
-      <c r="I13" s="16">
-        <v>10</v>
-      </c>
-      <c r="J13" s="16">
-        <v>84</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G14" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H14" s="16">
-        <v>2</v>
-      </c>
-      <c r="I14" s="16">
-        <v>10</v>
-      </c>
-      <c r="J14" s="16">
-        <v>84</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G15" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H15" s="16">
-        <v>2</v>
-      </c>
-      <c r="I15" s="16">
-        <v>10</v>
-      </c>
-      <c r="J15" s="16">
-        <v>84</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A16" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G16" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H16" s="16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="16">
-        <v>10</v>
-      </c>
-      <c r="J16" s="16">
-        <v>84</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E289" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E274" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C289" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C274" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1669,7 +824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1903,28 +1058,28 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
@@ -2391,28 +1546,28 @@
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
@@ -2449,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
@@ -2476,25 +1631,25 @@
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="C2" s="1"/>
